--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -811,8 +1330,8 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="75.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>SAPL-OCL</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-04-06T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1414907</v>
       </c>
@@ -1214,120 +1733,41 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>36931</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3402851</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1419477</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>36932</v>
@@ -1438,232 +1878,74 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>36932</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>FCIU4379818</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="0" t="n">
-        <v>1419478</v>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>36932</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>FCIU4379818</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1419478</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY CEMENT DUST</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36933</v>
@@ -1774,120 +2056,41 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>36933</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>AXIU2201680</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="0" t="n">
-        <v>1419492</v>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>36934</v>
@@ -1998,120 +2201,41 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>36934</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>NYKU9839108</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1419504</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>36935</v>
@@ -2222,120 +2346,41 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>36935</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>NYKU2796874</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1419505</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>36971</v>
@@ -2446,120 +2491,41 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>36971</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>KKTU7904872</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2018-05-21T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>196</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1431061</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>37024</v>
@@ -2647,7 +2613,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>37076</v>
@@ -2735,7 +2701,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>37103</v>
@@ -2823,7 +2789,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>37153</v>
@@ -2935,7 +2901,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>37214</v>
@@ -3046,344 +3012,107 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37214</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>TRLU7559791</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>KALAMOTI TRADER</t>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>2018/2261</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1462675</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>37214</v>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>TRLU7559791</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J26" s="0" t="inlineStr">
-        <is>
-          <t>KALAMOTI TRADER</t>
-        </is>
-      </c>
-      <c r="K26" s="0" t="inlineStr">
-        <is>
-          <t>2018/2261</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
-      </c>
-      <c r="N26" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
       <c r="O26" s="0"/>
-      <c r="P26" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="0" t="n">
-        <v>1462675</v>
-      </c>
-      <c r="W26" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD PLY WOOD MISSING AT VARIOUS PLASE,</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>37214</v>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>TRLU7559791</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>KALAMOTI TRADER</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>2018/2261</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="0" t="n">
-        <v>1462675</v>
-      </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD PICKUP 60"X60" WITH BROKEN</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>37244</v>
@@ -3494,232 +3223,74 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>37244</v>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>TCLU8543044</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="d">
-        <v>2018-08-08T00:00:00</v>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="0" t="n">
-        <v>1465182</v>
-      </c>
-      <c r="W29" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y29" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD HOLE 12"X12"</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>37244</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>TCLU8543044</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2018-08-08T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1465182</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>37256</v>
@@ -3807,7 +3378,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>37538</v>
@@ -3919,7 +3490,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>37539</v>
@@ -4030,120 +3601,41 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>37539</v>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>TGHU6618478</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I34" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K34" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L34" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N34" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
       <c r="O34" s="0"/>
-      <c r="P34" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="0" t="n">
-        <v>1472810</v>
-      </c>
-      <c r="W34" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CORRODED EYELET (WATER MARK)</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>37540</v>
@@ -4255,7 +3747,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>37541</v>
@@ -4366,120 +3858,41 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>37541</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>BMOU6598777</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>750/18</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1472835</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>37635</v>
@@ -4591,7 +4004,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>37676</v>
@@ -4703,7 +4116,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>37678</v>
@@ -4791,7 +4204,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>38007</v>
@@ -4879,7 +4292,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>38008</v>
@@ -4990,120 +4403,41 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>38008</v>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>TCLU9675127</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>CALA PINGUINO</t>
-        </is>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>2018/2603</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="0" t="n">
-        <v>1475777</v>
-      </c>
-      <c r="W43" s="0" t="inlineStr">
-        <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
-        </is>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
-        </is>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD WOODEN FITTING 08 PCS</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>38427</v>
@@ -5214,120 +4548,41 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>38427</v>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>KKFU9121167</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>OEL LANKA</t>
-        </is>
-      </c>
-      <c r="K45" s="0" t="inlineStr">
-        <is>
-          <t>00/2018</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="M45" s="4" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
       <c r="O45" s="0"/>
-      <c r="P45" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="0" t="n">
-        <v>1477242</v>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD PICK UP 24'X48'</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>38428</v>
@@ -5439,7 +4694,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>38429</v>
@@ -5551,7 +4806,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>38430</v>
@@ -5663,7 +4918,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>38433</v>
@@ -5775,7 +5030,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>38434</v>
@@ -5887,7 +5142,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>38438</v>
@@ -5999,7 +5254,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>38723</v>
@@ -6111,7 +5366,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>39504</v>
@@ -6222,120 +5477,41 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>39504</v>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>TCNU5900470</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H54" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I54" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J54" s="0" t="inlineStr">
-        <is>
-          <t>MCC QINGDAO</t>
-        </is>
-      </c>
-      <c r="K54" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L54" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M54" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N54" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="0"/>
       <c r="O54" s="0"/>
-      <c r="P54" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
       <c r="S54" s="0"/>
       <c r="T54" s="0"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="0" t="n">
-        <v>1480029</v>
-      </c>
-      <c r="W54" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0"/>
       <c r="X54" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y54" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y54" s="0"/>
+      <c r="Z54" s="0"/>
+      <c r="AA54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>39505</v>
@@ -6446,120 +5622,41 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>39505</v>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>TCLU9676490</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J56" s="0" t="inlineStr">
-        <is>
-          <t>WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K56" s="0" t="inlineStr">
-        <is>
-          <t>750/18</t>
-        </is>
-      </c>
-      <c r="L56" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N56" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
       <c r="O56" s="0"/>
-      <c r="P56" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="0" t="n">
-        <v>1480030</v>
-      </c>
-      <c r="W56" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y56" s="0" t="inlineStr">
-        <is>
           <t>DOOR MIDDLE GASKET STRIP BENT 8"</t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>39508</v>
@@ -6670,232 +5767,74 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>39508</v>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>FCIU8851455</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="0" t="n">
-        <v>1480034</v>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>39508</v>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>FCIU8851455</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E59" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G59" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H59" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I59" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J59" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K59" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L59" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M59" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N59" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="0"/>
       <c r="O59" s="0"/>
-      <c r="P59" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
       <c r="S59" s="0"/>
       <c r="T59" s="0"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="0" t="n">
-        <v>1480034</v>
-      </c>
-      <c r="W59" s="0" t="inlineStr">
-        <is>
-          <t>RAILS-(RAILS)</t>
-        </is>
-      </c>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
       <c r="X59" s="0" t="inlineStr">
         <is>
-          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
-        </is>
-      </c>
-      <c r="Y59" s="0" t="inlineStr">
-        <is>
           <t>DOOR BOTTOM RAIL CUT 8"X3" WITH BENT </t>
         </is>
       </c>
-      <c r="Z59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>39914</v>
@@ -7007,7 +5946,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>39959</v>
@@ -7119,7 +6058,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>39962</v>
@@ -7231,7 +6170,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>39964</v>
@@ -7343,7 +6282,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>40040</v>
@@ -7455,7 +6394,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>40041</v>
@@ -7567,7 +6506,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>40106</v>
@@ -7679,7 +6618,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>37604</v>
@@ -7791,7 +6730,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>40280</v>
@@ -7896,114 +6835,41 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>40280</v>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>TCLU4532334</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G69" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
       <c r="J69" s="0"/>
       <c r="K69" s="0"/>
-      <c r="L69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="M69" s="4" t="d">
-        <v>2018-10-01T18:11:25</v>
-      </c>
-      <c r="N69" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
       <c r="O69" s="0"/>
-      <c r="P69" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="0" t="inlineStr">
-        <is>
-          <t>dtp</t>
-        </is>
-      </c>
-      <c r="W69" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
       <c r="X69" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y69" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY BADLY DOG MEAL DUST &amp; BAD SMEEL .</t>
         </is>
       </c>
-      <c r="Z69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y69" s="0"/>
+      <c r="Z69" s="0"/>
+      <c r="AA69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>36936</v>
@@ -8114,120 +6980,41 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>36936</v>
-      </c>
-      <c r="C71" s="0" t="inlineStr">
-        <is>
-          <t>FCIU4413255</t>
-        </is>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E71" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H71" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I71" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L71" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N71" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A71" s="0"/>
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="0"/>
       <c r="O71" s="0"/>
-      <c r="P71" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
       <c r="S71" s="0"/>
       <c r="T71" s="0"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="0" t="n">
-        <v>1419524</v>
-      </c>
-      <c r="W71" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V71" s="0"/>
+      <c r="W71" s="0"/>
       <c r="X71" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y71" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
-      <c r="Z71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y71" s="0"/>
+      <c r="Z71" s="0"/>
+      <c r="AA71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>36990</v>
@@ -8338,120 +7125,41 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>36990</v>
-      </c>
-      <c r="C73" s="0" t="inlineStr">
-        <is>
-          <t>TCKU3641586</t>
-        </is>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E73" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G73" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H73" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I73" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J73" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K73" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L73" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M73" s="4" t="d">
-        <v>2018-06-07T00:00:00</v>
-      </c>
-      <c r="N73" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
       <c r="O73" s="0"/>
-      <c r="P73" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="Q73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="0" t="n">
-        <v>1438382</v>
-      </c>
-      <c r="W73" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0"/>
       <c r="X73" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y73" s="0" t="inlineStr">
-        <is>
           <t>EXTERIOR PANEL D,G LOGO FITTINGS 8 PCS</t>
         </is>
       </c>
-      <c r="Z73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y73" s="0"/>
+      <c r="Z73" s="0"/>
+      <c r="AA73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>37078</v>
@@ -8563,7 +7271,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>37087</v>
@@ -8675,7 +7383,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>37093</v>
@@ -8786,120 +7494,41 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>37093</v>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3385219</t>
-        </is>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G77" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H77" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I77" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J77" s="0" t="inlineStr">
-        <is>
-          <t>X PRESS MAHANNDA</t>
-        </is>
-      </c>
-      <c r="K77" s="0" t="inlineStr">
-        <is>
-          <t>1993/2018</t>
-        </is>
-      </c>
-      <c r="L77" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M77" s="4" t="d">
-        <v>2018-07-18T00:00:00</v>
-      </c>
-      <c r="N77" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
       <c r="O77" s="0"/>
-      <c r="P77" s="0" t="n">
-        <v>138</v>
-      </c>
-      <c r="Q77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
       <c r="S77" s="0"/>
       <c r="T77" s="0"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="0" t="n">
-        <v>1454690</v>
-      </c>
-      <c r="W77" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0"/>
       <c r="X77" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y77" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR BOTTOM GASKET LOOSE 12"</t>
         </is>
       </c>
-      <c r="Z77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y77" s="0"/>
+      <c r="Z77" s="0"/>
+      <c r="AA77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>37705</v>
@@ -9011,7 +7640,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>37754</v>
@@ -9123,7 +7752,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>37848</v>
@@ -9235,7 +7864,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>37936</v>
@@ -9347,7 +7976,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>38240</v>
@@ -9435,7 +8064,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>38499</v>
@@ -9547,7 +8176,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>38697</v>
@@ -9659,7 +8288,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>38698</v>
@@ -9747,7 +8376,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>38849</v>
@@ -9859,7 +8488,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>38850</v>
@@ -9971,7 +8600,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>39091</v>
@@ -10083,7 +8712,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>39099</v>
@@ -10195,7 +8824,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>39240</v>
@@ -10307,7 +8936,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>39242</v>
@@ -10395,7 +9024,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>39243</v>
@@ -10483,7 +9112,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>39483</v>
@@ -10595,7 +9224,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>39486</v>
@@ -10683,7 +9312,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>39488</v>
@@ -10795,7 +9424,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>39819</v>
@@ -10906,120 +9535,41 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="B97" s="0" t="n">
-        <v>39819</v>
-      </c>
-      <c r="C97" s="0" t="inlineStr">
-        <is>
-          <t>MOFU0785974</t>
-        </is>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E97" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F97" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G97" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H97" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I97" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J97" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K97" s="0" t="inlineStr">
-        <is>
-          <t>2018/2595</t>
-        </is>
-      </c>
-      <c r="L97" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M97" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="N97" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A97" s="0"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="0"/>
       <c r="O97" s="0"/>
-      <c r="P97" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
       <c r="S97" s="0"/>
       <c r="T97" s="0"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="0" t="n">
-        <v>1480591</v>
-      </c>
-      <c r="W97" s="0" t="inlineStr">
-        <is>
-          <t>RAILS-(RAILS)</t>
-        </is>
-      </c>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0"/>
       <c r="X97" s="0" t="inlineStr">
         <is>
-          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
-        </is>
-      </c>
-      <c r="Y97" s="0" t="inlineStr">
-        <is>
           <t>FRONT SIDE BOTTOM RAIL CRACKED 4"</t>
         </is>
       </c>
-      <c r="Z97" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA97" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB97" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y97" s="0"/>
+      <c r="Z97" s="0"/>
+      <c r="AA97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>39877</v>
@@ -11130,232 +9680,74 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>39877</v>
-      </c>
-      <c r="C99" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3500230</t>
-        </is>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E99" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F99" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G99" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H99" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I99" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J99" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K99" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L99" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M99" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N99" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="0"/>
       <c r="O99" s="0"/>
-      <c r="P99" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R99" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
       <c r="S99" s="0"/>
       <c r="T99" s="0"/>
       <c r="U99" s="4"/>
-      <c r="V99" s="0" t="n">
-        <v>1419468</v>
-      </c>
-      <c r="W99" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0"/>
       <c r="X99" s="0" t="inlineStr">
         <is>
-          <t>Front panel -(Front panel )</t>
-        </is>
-      </c>
-      <c r="Y99" s="0" t="inlineStr">
-        <is>
           <t>FRONT PANEL CUT 16" WITH PUSH IN 20"X20"</t>
         </is>
       </c>
-      <c r="Z99" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA99" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB99" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y99" s="0"/>
+      <c r="Z99" s="0"/>
+      <c r="AA99" s="0"/>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="B100" s="0" t="n">
-        <v>39877</v>
-      </c>
-      <c r="C100" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3500230</t>
-        </is>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E100" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F100" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G100" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H100" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I100" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J100" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K100" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L100" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M100" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N100" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A100" s="0"/>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="0"/>
       <c r="O100" s="0"/>
-      <c r="P100" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q100" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R100" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P100" s="0"/>
+      <c r="Q100" s="0"/>
+      <c r="R100" s="0"/>
       <c r="S100" s="0"/>
       <c r="T100" s="0"/>
       <c r="U100" s="4"/>
-      <c r="V100" s="0" t="n">
-        <v>1419468</v>
-      </c>
-      <c r="W100" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V100" s="0"/>
+      <c r="W100" s="0"/>
       <c r="X100" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y100" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL SPOT</t>
         </is>
       </c>
-      <c r="Z100" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA100" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB100" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y100" s="0"/>
+      <c r="Z100" s="0"/>
+      <c r="AA100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>39878</v>
@@ -11467,7 +9859,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>39879</v>
@@ -11578,120 +9970,41 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <v>39879</v>
-      </c>
-      <c r="C103" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3862944</t>
-        </is>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E103" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F103" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G103" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H103" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I103" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L103" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M103" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N103" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A103" s="0"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="0"/>
       <c r="O103" s="0"/>
-      <c r="P103" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R103" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+      <c r="R103" s="0"/>
       <c r="S103" s="0"/>
       <c r="T103" s="0"/>
       <c r="U103" s="4"/>
-      <c r="V103" s="0" t="n">
-        <v>1419506</v>
-      </c>
-      <c r="W103" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V103" s="0"/>
+      <c r="W103" s="0"/>
       <c r="X103" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y103" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
-      <c r="Z103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y103" s="0"/>
+      <c r="Z103" s="0"/>
+      <c r="AA103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>39880</v>
@@ -11802,232 +10115,74 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B105" s="0" t="n">
-        <v>39880</v>
-      </c>
-      <c r="C105" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3750585</t>
-        </is>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E105" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F105" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G105" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H105" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I105" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J105" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K105" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L105" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M105" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N105" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0"/>
+      <c r="L105" s="0"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="0"/>
       <c r="O105" s="0"/>
-      <c r="P105" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R105" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0"/>
+      <c r="R105" s="0"/>
       <c r="S105" s="0"/>
       <c r="T105" s="0"/>
       <c r="U105" s="4"/>
-      <c r="V105" s="0" t="n">
-        <v>1419523</v>
-      </c>
-      <c r="W105" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V105" s="0"/>
+      <c r="W105" s="0"/>
       <c r="X105" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y105" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL PUSHED IN  24"X18"</t>
         </is>
       </c>
-      <c r="Z105" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA105" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB105" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y105" s="0"/>
+      <c r="Z105" s="0"/>
+      <c r="AA105" s="0"/>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="B106" s="0" t="n">
-        <v>39880</v>
-      </c>
-      <c r="C106" s="0" t="inlineStr">
-        <is>
-          <t>NYKU3750585</t>
-        </is>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E106" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F106" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G106" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H106" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I106" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J106" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K106" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L106" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M106" s="4" t="d">
-        <v>2018-04-01T00:00:00</v>
-      </c>
-      <c r="N106" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A106" s="0"/>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0"/>
+      <c r="L106" s="0"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="0"/>
       <c r="O106" s="0"/>
-      <c r="P106" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="Q106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R106" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+      <c r="R106" s="0"/>
       <c r="S106" s="0"/>
       <c r="T106" s="0"/>
       <c r="U106" s="4"/>
-      <c r="V106" s="0" t="n">
-        <v>1419523</v>
-      </c>
-      <c r="W106" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0"/>
       <c r="X106" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y106" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
-      <c r="Z106" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA106" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB106" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y106" s="0"/>
+      <c r="Z106" s="0"/>
+      <c r="AA106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>39881</v>
@@ -12139,7 +10294,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>39884</v>
@@ -12251,7 +10406,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>39885</v>
@@ -12362,120 +10517,41 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>39885</v>
-      </c>
-      <c r="C110" s="0" t="inlineStr">
-        <is>
-          <t>MOAU6788583</t>
-        </is>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E110" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F110" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G110" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H110" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I110" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J110" s="0" t="inlineStr">
-        <is>
-          <t>X PRESS MAHANNDA</t>
-        </is>
-      </c>
-      <c r="K110" s="0" t="inlineStr">
-        <is>
-          <t>1993/2018</t>
-        </is>
-      </c>
-      <c r="L110" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M110" s="4" t="d">
-        <v>2018-07-14T00:00:00</v>
-      </c>
-      <c r="N110" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A110" s="0"/>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+      <c r="K110" s="0"/>
+      <c r="L110" s="0"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="0"/>
       <c r="O110" s="0"/>
-      <c r="P110" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="Q110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P110" s="0"/>
+      <c r="Q110" s="0"/>
+      <c r="R110" s="0"/>
       <c r="S110" s="0"/>
       <c r="T110" s="0"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="0" t="n">
-        <v>1453189</v>
-      </c>
-      <c r="W110" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V110" s="0"/>
+      <c r="W110" s="0"/>
       <c r="X110" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y110" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z110" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA110" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB110" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y110" s="0"/>
+      <c r="Z110" s="0"/>
+      <c r="AA110" s="0"/>
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>39887</v>
@@ -12587,7 +10663,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>39888</v>
@@ -12699,7 +10775,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>40016</v>
@@ -12811,7 +10887,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>40018</v>
@@ -12923,7 +10999,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>40063</v>
@@ -13035,7 +11111,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>40316</v>

--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="243.98988764044944" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="55.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="75.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1733,37 +1733,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY OIL STAIN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -1878,70 +1857,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY CEMENT DUST</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY CEMENT DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -2056,37 +1993,16 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -2201,37 +2117,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2346,37 +2241,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2491,37 +2365,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -3012,103 +2865,40 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PLY WOOD MISSING AT VARIOUS PLASE,</t>
-        </is>
-      </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PLY WOOD MISSING AT VARIOUS PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PICKUP 60"X60" WITH BROKEN</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PICKUP 60\"X60\" WITH BROKEN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3223,70 +3013,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD HOLE 12"X12"</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD HOLE 12\"X12\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -3601,37 +3349,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CORRODED EYELET (WATER MARK)</t>
-        </is>
-      </c>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CORRODED EYELET (WATER MARK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -3858,37 +3585,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -4403,37 +4109,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD WOODEN FITTING 08 PCS</t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "FLOOR BOARD WOODEN FITTING 08 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
@@ -4548,37 +4233,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PICK UP 24'X48'</t>
-        </is>
-      </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK UP 24'X48'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -5477,37 +5141,16 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
@@ -5622,37 +5265,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0" t="inlineStr">
-        <is>
-          <t>DOOR MIDDLE GASKET STRIP BENT 8"</t>
-        </is>
-      </c>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "DOOR MIDDLE GASKET STRIP BENT 8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
@@ -5767,70 +5389,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0" t="inlineStr">
-        <is>
-          <t>DOOR BOTTOM RAIL CUT 8"X3" WITH BENT </t>
-        </is>
-      </c>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "DOOR BOTTOM RAIL CUT 8\"X3\" WITH BENT ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
@@ -6835,37 +6415,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-      <c r="L69" s="0"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-      <c r="P69" s="0"/>
-      <c r="Q69" s="0"/>
-      <c r="R69" s="0"/>
-      <c r="S69" s="0"/>
-      <c r="T69" s="0"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="0"/>
-      <c r="W69" s="0"/>
-      <c r="X69" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY DOG MEAL DUST &amp; BAD SMEEL .</t>
-        </is>
-      </c>
-      <c r="Y69" s="0"/>
-      <c r="Z69" s="0"/>
-      <c r="AA69" s="0"/>
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY DOG MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
@@ -6980,37 +6539,16 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="0"/>
-      <c r="L71" s="0"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-      <c r="P71" s="0"/>
-      <c r="Q71" s="0"/>
-      <c r="R71" s="0"/>
-      <c r="S71" s="0"/>
-      <c r="T71" s="0"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="0"/>
-      <c r="W71" s="0"/>
-      <c r="X71" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY</t>
-        </is>
-      </c>
-      <c r="Y71" s="0"/>
-      <c r="Z71" s="0"/>
-      <c r="AA71" s="0"/>
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
@@ -7125,37 +6663,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-      <c r="L73" s="0"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="0"/>
-      <c r="O73" s="0"/>
-      <c r="P73" s="0"/>
-      <c r="Q73" s="0"/>
-      <c r="R73" s="0"/>
-      <c r="S73" s="0"/>
-      <c r="T73" s="0"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="0"/>
-      <c r="W73" s="0"/>
-      <c r="X73" s="0" t="inlineStr">
-        <is>
-          <t>EXTERIOR PANEL D,G LOGO FITTINGS 8 PCS</t>
-        </is>
-      </c>
-      <c r="Y73" s="0"/>
-      <c r="Z73" s="0"/>
-      <c r="AA73" s="0"/>
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL D,G LOGO FITTINGS 8 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
@@ -7494,37 +7011,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
-      <c r="T77" s="0"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET LOOSE 12"</t>
-        </is>
-      </c>
-      <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
-      <c r="AA77" s="0"/>
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET LOOSE 12\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
@@ -9535,37 +9031,16 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="0"/>
-      <c r="O97" s="0"/>
-      <c r="P97" s="0"/>
-      <c r="Q97" s="0"/>
-      <c r="R97" s="0"/>
-      <c r="S97" s="0"/>
-      <c r="T97" s="0"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="0"/>
-      <c r="W97" s="0"/>
-      <c r="X97" s="0" t="inlineStr">
-        <is>
-          <t>FRONT SIDE BOTTOM RAIL CRACKED 4"</t>
-        </is>
-      </c>
-      <c r="Y97" s="0"/>
-      <c r="Z97" s="0"/>
-      <c r="AA97" s="0"/>
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "FRONT SIDE BOTTOM RAIL CRACKED 4\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
@@ -9680,70 +9155,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0"/>
-      <c r="B99" s="0"/>
-      <c r="C99" s="0"/>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="0"/>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-      <c r="K99" s="0"/>
-      <c r="L99" s="0"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="0"/>
-      <c r="O99" s="0"/>
-      <c r="P99" s="0"/>
-      <c r="Q99" s="0"/>
-      <c r="R99" s="0"/>
-      <c r="S99" s="0"/>
-      <c r="T99" s="0"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="0"/>
-      <c r="W99" s="0"/>
-      <c r="X99" s="0" t="inlineStr">
-        <is>
-          <t>FRONT PANEL CUT 16" WITH PUSH IN 20"X20"</t>
-        </is>
-      </c>
-      <c r="Y99" s="0"/>
-      <c r="Z99" s="0"/>
-      <c r="AA99" s="0"/>
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Front panel -(Front panel )", "FRONT PANEL CUT 16\" WITH PUSH IN 20\"X20\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="0"/>
-      <c r="B100" s="0"/>
-      <c r="C100" s="0"/>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-      <c r="G100" s="0"/>
-      <c r="H100" s="0"/>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-      <c r="K100" s="0"/>
-      <c r="L100" s="0"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="0"/>
-      <c r="O100" s="0"/>
-      <c r="P100" s="0"/>
-      <c r="Q100" s="0"/>
-      <c r="R100" s="0"/>
-      <c r="S100" s="0"/>
-      <c r="T100" s="0"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="0"/>
-      <c r="W100" s="0"/>
-      <c r="X100" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL SPOT</t>
-        </is>
-      </c>
-      <c r="Y100" s="0"/>
-      <c r="Z100" s="0"/>
-      <c r="AA100" s="0"/>
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL SPOT", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
@@ -9970,37 +9403,16 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
-      <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
-      <c r="L103" s="0"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="0"/>
-      <c r="O103" s="0"/>
-      <c r="P103" s="0"/>
-      <c r="Q103" s="0"/>
-      <c r="R103" s="0"/>
-      <c r="S103" s="0"/>
-      <c r="T103" s="0"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="0"/>
-      <c r="W103" s="0"/>
-      <c r="X103" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY</t>
-        </is>
-      </c>
-      <c r="Y103" s="0"/>
-      <c r="Z103" s="0"/>
-      <c r="AA103" s="0"/>
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
@@ -10115,70 +9527,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0"/>
-      <c r="B105" s="0"/>
-      <c r="C105" s="0"/>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
-      <c r="H105" s="0"/>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-      <c r="K105" s="0"/>
-      <c r="L105" s="0"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="0"/>
-      <c r="O105" s="0"/>
-      <c r="P105" s="0"/>
-      <c r="Q105" s="0"/>
-      <c r="R105" s="0"/>
-      <c r="S105" s="0"/>
-      <c r="T105" s="0"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="0"/>
-      <c r="W105" s="0"/>
-      <c r="X105" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL PUSHED IN  24"X18"</t>
-        </is>
-      </c>
-      <c r="Y105" s="0"/>
-      <c r="Z105" s="0"/>
-      <c r="AA105" s="0"/>
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL PUSHED IN  24\"X18\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0"/>
-      <c r="L106" s="0"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="0"/>
-      <c r="O106" s="0"/>
-      <c r="P106" s="0"/>
-      <c r="Q106" s="0"/>
-      <c r="R106" s="0"/>
-      <c r="S106" s="0"/>
-      <c r="T106" s="0"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="0"/>
-      <c r="W106" s="0"/>
-      <c r="X106" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY</t>
-        </is>
-      </c>
-      <c r="Y106" s="0"/>
-      <c r="Z106" s="0"/>
-      <c r="AA106" s="0"/>
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
@@ -10517,37 +9887,16 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-      <c r="G110" s="0"/>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
-      <c r="K110" s="0"/>
-      <c r="L110" s="0"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="0"/>
-      <c r="O110" s="0"/>
-      <c r="P110" s="0"/>
-      <c r="Q110" s="0"/>
-      <c r="R110" s="0"/>
-      <c r="S110" s="0"/>
-      <c r="T110" s="0"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="0"/>
-      <c r="W110" s="0"/>
-      <c r="X110" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y110" s="0"/>
-      <c r="Z110" s="0"/>
-      <c r="AA110" s="0"/>
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">

--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="243.98988764044944" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1330,7 +1330,7 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="75.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
@@ -1738,9 +1738,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY OIL STAIN", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1862,9 +1908,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1874,9 +1966,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY CEMENT DUST", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY CEMENT DUST</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1998,9 +2136,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2122,9 +2306,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2246,9 +2476,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2370,9 +2646,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2870,9 +3192,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2882,9 +3250,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PLY WOOD MISSING AT VARIOUS PLASE,", "", "", ""]</t>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PLY WOOD MISSING AT VARIOUS PLASE,</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2894,9 +3308,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PICKUP 60\"X60\" WITH BROKEN", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PICKUP 60"X60" WITH BROKEN</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3018,9 +3478,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD HOLE 12\"X12\"", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD HOLE 12"X12"</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3030,9 +3536,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3354,9 +3906,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CORRODED EYELET (WATER MARK)", "", "", ""]</t>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X34" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y34" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CORRODED EYELET (WATER MARK)</t>
+        </is>
+      </c>
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3590,9 +4188,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4114,9 +4758,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "FLOOR BOARD WOODEN FITTING 08 PCS", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD WOODEN FITTING 08 PCS</t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4238,9 +4928,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD PICK UP 24'X48'", "", "", ""]</t>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PICK UP 24'X48'</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5146,9 +5882,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X54" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y54" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB54" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5270,9 +6052,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "DOOR MIDDLE GASKET STRIP BENT 8\"", "", "", ""]</t>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t>DOOR MIDDLE GASKET STRIP BENT 8"</t>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5394,9 +6222,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; RUSTED", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5406,9 +6280,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "DOOR BOTTOM RAIL CUT 8\"X3\" WITH BENT ", "", "", ""]</t>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X59" s="0" t="inlineStr">
+        <is>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+        </is>
+      </c>
+      <c r="Y59" s="0" t="inlineStr">
+        <is>
+          <t>DOOR BOTTOM RAIL CUT 8"X3" WITH BENT </t>
+        </is>
+      </c>
+      <c r="Z59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB59" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6420,9 +7340,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY DOG MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X69" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y69" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY DOG MEAL DUST &amp; BAD SMEEL .</t>
+        </is>
+      </c>
+      <c r="Z69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6544,9 +7510,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0"/>
+      <c r="T71" s="0"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="0"/>
+      <c r="W71" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X71" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y71" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY</t>
+        </is>
+      </c>
+      <c r="Z71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB71" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6668,9 +7680,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL D,G LOGO FITTINGS 8 PCS", "", "", ""]</t>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
+      <c r="S73" s="0"/>
+      <c r="T73" s="0"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X73" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y73" s="0" t="inlineStr">
+        <is>
+          <t>EXTERIOR PANEL D,G LOGO FITTINGS 8 PCS</t>
+        </is>
+      </c>
+      <c r="Z73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB73" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7016,9 +8074,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET LOOSE 12\"", "", "", ""]</t>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X77" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y77" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET LOOSE 12"</t>
+        </is>
+      </c>
+      <c r="Z77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9036,9 +10140,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B97" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "FRONT SIDE BOTTOM RAIL CRACKED 4\"", "", "", ""]</t>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X97" s="0" t="inlineStr">
+        <is>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+        </is>
+      </c>
+      <c r="Y97" s="0" t="inlineStr">
+        <is>
+          <t>FRONT SIDE BOTTOM RAIL CRACKED 4"</t>
+        </is>
+      </c>
+      <c r="Z97" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA97" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB97" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9160,9 +10310,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B99" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Front panel -(Front panel )", "FRONT PANEL CUT 16\" WITH PUSH IN 20\"X20\"", "", "", ""]</t>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X99" s="0" t="inlineStr">
+        <is>
+          <t>Front panel -(Front panel )</t>
+        </is>
+      </c>
+      <c r="Y99" s="0" t="inlineStr">
+        <is>
+          <t>FRONT PANEL CUT 16" WITH PUSH IN 20"X20"</t>
+        </is>
+      </c>
+      <c r="Z99" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA99" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB99" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9172,9 +10368,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B100" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL SPOT", "", "", ""]</t>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="0"/>
+      <c r="O100" s="0"/>
+      <c r="P100" s="0"/>
+      <c r="Q100" s="0"/>
+      <c r="R100" s="0"/>
+      <c r="S100" s="0"/>
+      <c r="T100" s="0"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="0"/>
+      <c r="W100" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X100" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y100" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL SPOT</t>
+        </is>
+      </c>
+      <c r="Z100" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA100" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB100" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9408,9 +10650,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B103" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="0"/>
+      <c r="O103" s="0"/>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+      <c r="R103" s="0"/>
+      <c r="S103" s="0"/>
+      <c r="T103" s="0"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="0"/>
+      <c r="W103" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X103" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y103" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY</t>
+        </is>
+      </c>
+      <c r="Z103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB103" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9532,9 +10820,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B105" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL PUSHED IN  24\"X18\"", "", "", ""]</t>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0"/>
+      <c r="L105" s="0"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="0"/>
+      <c r="O105" s="0"/>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0"/>
+      <c r="R105" s="0"/>
+      <c r="S105" s="0"/>
+      <c r="T105" s="0"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="0"/>
+      <c r="W105" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X105" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y105" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL PUSHED IN  24"X18"</t>
+        </is>
+      </c>
+      <c r="Z105" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA105" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB105" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9544,9 +10878,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B106" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY", "", "", ""]</t>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0"/>
+      <c r="L106" s="0"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+      <c r="R106" s="0"/>
+      <c r="S106" s="0"/>
+      <c r="T106" s="0"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X106" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y106" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY</t>
+        </is>
+      </c>
+      <c r="Z106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB106" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9892,9 +11272,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B110" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+      <c r="K110" s="0"/>
+      <c r="L110" s="0"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="0"/>
+      <c r="O110" s="0"/>
+      <c r="P110" s="0"/>
+      <c r="Q110" s="0"/>
+      <c r="R110" s="0"/>
+      <c r="S110" s="0"/>
+      <c r="T110" s="0"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="0"/>
+      <c r="W110" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X110" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y110" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB110" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_60_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:80</t>
+          <t>Total number of containers:80</t>
         </is>
       </c>
     </row>
